--- a/PID.xlsx
+++ b/PID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>kp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D降低，转弯僵硬缓解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1167,6 +1171,59 @@
       </c>
       <c r="P15" s="2">
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="H16" s="2">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="J16" s="2">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2">
+        <v>118</v>
+      </c>
+      <c r="L16" s="2">
+        <v>60</v>
+      </c>
+      <c r="M16" s="2">
+        <v>54</v>
+      </c>
+      <c r="N16" s="2">
+        <v>46</v>
+      </c>
+      <c r="O16" s="2">
+        <v>36</v>
+      </c>
+      <c r="P16" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>kp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>D降低，转弯僵硬缓解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池充满时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,6 +1228,56 @@
       </c>
       <c r="Q16" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H17" s="2">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25</v>
+      </c>
+      <c r="L17" s="2">
+        <v>62</v>
+      </c>
+      <c r="M17" s="2">
+        <v>56</v>
+      </c>
+      <c r="N17" s="2">
+        <v>48</v>
+      </c>
+      <c r="O17" s="2">
+        <v>38</v>
+      </c>
+      <c r="P17" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1278,6 +1278,53 @@
       </c>
       <c r="Q17" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F18" s="2">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>15</v>
+      </c>
+      <c r="L18" s="2">
+        <v>56</v>
+      </c>
+      <c r="M18" s="2">
+        <v>56</v>
+      </c>
+      <c r="N18" s="2">
+        <v>48</v>
+      </c>
+      <c r="O18" s="2">
+        <v>40</v>
+      </c>
+      <c r="P18" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1325,6 +1325,41 @@
       </c>
       <c r="P18" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>kp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>电池充满时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H楼 d:10~12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,6 +1338,9 @@
       <c r="P18" s="2">
         <v>32</v>
       </c>
+      <c r="Q18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -1360,6 +1375,44 @@
       </c>
       <c r="K19" s="2">
         <v>135</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>kp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>H楼 d:10~12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 比较好 电压7.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1413,6 +1417,56 @@
       </c>
       <c r="Q20" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="J21" s="2">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2">
+        <v>52</v>
+      </c>
+      <c r="M21" s="2">
+        <v>50</v>
+      </c>
+      <c r="N21" s="2">
+        <v>46</v>
+      </c>
+      <c r="O21" s="2">
+        <v>40</v>
+      </c>
+      <c r="P21" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
